--- a/experiments/sl-fmri-expt/dec2018_fmri/visual/visual_run1_5.xlsx
+++ b/experiments/sl-fmri-expt/dec2018_fmri/visual/visual_run1_5.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Qlab\Documents\new_fmri\visual\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brainstim\Documents\modified_fmri\modified_fmri\modified_visual\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="19">
   <si>
     <t>image</t>
   </si>
@@ -44,25 +44,34 @@
     <t>repetition</t>
   </si>
   <si>
+    <t>M.png</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>K.png</t>
+  </si>
+  <si>
+    <t>B.png</t>
+  </si>
+  <si>
     <t>A.png</t>
   </si>
   <si>
-    <t>S</t>
-  </si>
-  <si>
     <t>J.png</t>
   </si>
   <si>
     <t>F.png</t>
   </si>
   <si>
-    <t>M.png</t>
-  </si>
-  <si>
-    <t>K.png</t>
-  </si>
-  <si>
-    <t>B.png</t>
+    <t>D.png</t>
+  </si>
+  <si>
+    <t>G.png</t>
+  </si>
+  <si>
+    <t>C.png</t>
   </si>
   <si>
     <t>E.png</t>
@@ -72,21 +81,6 @@
   </si>
   <si>
     <t>H.png</t>
-  </si>
-  <si>
-    <t>D.png</t>
-  </si>
-  <si>
-    <t>G.png</t>
-  </si>
-  <si>
-    <t>C.png</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>blanka.png</t>
   </si>
 </sst>
 </file>
@@ -404,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F37"/>
+  <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -437,19 +431,19 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>73</v>
+        <v>97</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -457,19 +451,19 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -477,19 +471,19 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>75</v>
+        <v>99</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -497,13 +491,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C5" t="s">
         <v>7</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -517,13 +511,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>77</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
         <v>7</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -537,13 +531,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
         <v>7</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -554,10 +548,10 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
@@ -569,15 +563,15 @@
         <v>1</v>
       </c>
       <c r="F8">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>80</v>
+        <v>104</v>
       </c>
       <c r="C9" t="s">
         <v>7</v>
@@ -589,15 +583,15 @@
         <v>2</v>
       </c>
       <c r="F9">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="C10" t="s">
         <v>7</v>
@@ -609,15 +603,15 @@
         <v>3</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B11">
-        <v>82</v>
+        <v>106</v>
       </c>
       <c r="C11" t="s">
         <v>7</v>
@@ -629,15 +623,15 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12">
-        <v>83</v>
+        <v>107</v>
       </c>
       <c r="C12" t="s">
         <v>7</v>
@@ -649,15 +643,15 @@
         <v>2</v>
       </c>
       <c r="F12">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B13">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
         <v>7</v>
@@ -669,15 +663,15 @@
         <v>3</v>
       </c>
       <c r="F13">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B14">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
         <v>7</v>
@@ -689,15 +683,15 @@
         <v>1</v>
       </c>
       <c r="F14">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B15">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
         <v>7</v>
@@ -709,147 +703,147 @@
         <v>2</v>
       </c>
       <c r="F15">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16">
+        <v>111</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
         <v>9</v>
-      </c>
-      <c r="B16">
-        <v>87</v>
-      </c>
-      <c r="C16" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <v>3</v>
-      </c>
-      <c r="F16">
-        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B17">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
         <v>7</v>
       </c>
       <c r="D17">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>1</v>
       </c>
       <c r="F17">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="C18" t="s">
         <v>7</v>
       </c>
       <c r="D18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E18">
         <v>2</v>
       </c>
       <c r="F18">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B19">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="C19" t="s">
         <v>7</v>
       </c>
       <c r="D19">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E19">
         <v>3</v>
       </c>
       <c r="F19">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B20">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
         <v>7</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20">
         <v>1</v>
       </c>
       <c r="F20">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B21">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
         <v>7</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E21">
         <v>2</v>
       </c>
       <c r="F21">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B22">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E22">
         <v>3</v>
       </c>
       <c r="F22">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -857,19 +851,19 @@
         <v>16</v>
       </c>
       <c r="B23">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="F23">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -877,19 +871,19 @@
         <v>17</v>
       </c>
       <c r="B24">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="C24" t="s">
         <v>7</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E24">
         <v>2</v>
       </c>
       <c r="F24">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -897,259 +891,499 @@
         <v>18</v>
       </c>
       <c r="B25">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="C25" t="s">
         <v>7</v>
       </c>
       <c r="D25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E25">
         <v>3</v>
       </c>
       <c r="F25">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>122</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E27">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>126</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F31">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="C32" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="C34" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="C36" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F36">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38">
+        <v>133</v>
+      </c>
+      <c r="C38" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38">
+        <v>3</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39">
+        <v>134</v>
+      </c>
+      <c r="C39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>3</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40">
+        <v>135</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41">
+        <v>136</v>
+      </c>
+      <c r="C41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>4</v>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>137</v>
+      </c>
+      <c r="C42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>4</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>18</v>
+      </c>
+      <c r="B43">
+        <v>138</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>13</v>
+      </c>
+      <c r="B44">
+        <v>139</v>
+      </c>
+      <c r="C44" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44">
+        <v>3</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>14</v>
+      </c>
+      <c r="B45">
+        <v>140</v>
+      </c>
+      <c r="C45" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>3</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46">
+        <v>141</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46">
+        <v>3</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47">
+        <v>142</v>
+      </c>
+      <c r="C47" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48">
+        <v>143</v>
+      </c>
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48">
+        <v>2</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49">
+        <v>144</v>
+      </c>
+      <c r="C49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
